--- a/Э. 3.2/Pb.xlsx
+++ b/Э. 3.2/Pb.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Pb" sheetId="1" r:id="rId2"/>
+    <sheet name="FitLinearCurve1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="39" uniqueCount="20">
   <si>
     <t>Hz</t>
   </si>
@@ -24,13 +25,55 @@
     <t>dBV</t>
   </si>
   <si>
+    <t>deg</t>
+  </si>
+  <si>
     <t>rad</t>
   </si>
   <si>
     <t>tg</t>
   </si>
   <si>
+    <t>Independent Variable</t>
+  </si>
+  <si>
+    <t>Linear Fit of Pb F"tg"</t>
+  </si>
+  <si>
+    <t>Regular Residual of Pb F"tg"</t>
+  </si>
+  <si>
+    <t>Fitted Y</t>
+  </si>
+  <si>
+    <t>Percentiles</t>
+  </si>
+  <si>
+    <t>Reference X</t>
+  </si>
+  <si>
+    <t>Reference Line</t>
+  </si>
+  <si>
     <t/>
+  </si>
+  <si>
+    <t>mu = -0.000000</t>
+  </si>
+  <si>
+    <t>sigma = 0.016561</t>
+  </si>
+  <si>
+    <t>Fitted Curves Plot</t>
+  </si>
+  <si>
+    <t>Histogram of the Residual Plot</t>
+  </si>
+  <si>
+    <t>Residual vs. Predicted Values Plot</t>
+  </si>
+  <si>
+    <t>Normal Probability Plot of Residuals</t>
   </si>
 </sst>
 </file>
@@ -74,7 +117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -99,12 +142,6 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -114,7 +151,16 @@
         <v>0.011</v>
       </c>
       <c r="C2">
-        <v>-39.461</v>
+        <v>-38.8</v>
+      </c>
+      <c r="D2">
+        <v>129.8</v>
+      </c>
+      <c r="E2">
+        <v>2.26543736908864</v>
+      </c>
+      <c r="F2">
+        <v>-1.20023727840978</v>
       </c>
     </row>
     <row r="3">
@@ -122,10 +168,19 @@
         <v>200</v>
       </c>
       <c r="B3">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="C3">
-        <v>-41.228</v>
+        <v>-42.09</v>
+      </c>
+      <c r="D3">
+        <v>156.8</v>
+      </c>
+      <c r="E3">
+        <v>2.73667626712711</v>
+      </c>
+      <c r="F3">
+        <v>-0.428600547456001</v>
       </c>
     </row>
     <row r="4">
@@ -136,7 +191,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C4">
-        <v>-40.773</v>
+        <v>-40.498</v>
+      </c>
+      <c r="D4">
+        <v>162.6</v>
+      </c>
+      <c r="E4">
+        <v>2.83790536374278</v>
+      </c>
+      <c r="F4">
+        <v>-0.313381004050686</v>
       </c>
     </row>
     <row r="5">
@@ -144,10 +208,19 @@
         <v>400</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C5">
-        <v>-40.223</v>
+        <v>-40.629</v>
+      </c>
+      <c r="D5">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>2.84488668075076</v>
+      </c>
+      <c r="F5">
+        <v>-0.305730681458661</v>
       </c>
     </row>
     <row r="6">
@@ -155,10 +228,19 @@
         <v>500</v>
       </c>
       <c r="B6">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="C6">
-        <v>-39.023</v>
+        <v>-38.033</v>
+      </c>
+      <c r="D6">
+        <v>163.2</v>
+      </c>
+      <c r="E6">
+        <v>2.84837733925475</v>
+      </c>
+      <c r="F6">
+        <v>-0.301917800368199</v>
       </c>
     </row>
     <row r="7">
@@ -166,10 +248,19 @@
         <v>600</v>
       </c>
       <c r="B7">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="C7">
-        <v>-38.858</v>
+        <v>-38.102</v>
+      </c>
+      <c r="D7">
+        <v>162</v>
+      </c>
+      <c r="E7">
+        <v>2.82743338823081</v>
+      </c>
+      <c r="F7">
+        <v>-0.324919696232906</v>
       </c>
     </row>
     <row r="8">
@@ -177,10 +268,19 @@
         <v>700</v>
       </c>
       <c r="B8">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="C8">
-        <v>-35.956</v>
+        <v>-35.592</v>
+      </c>
+      <c r="D8">
+        <v>160.6</v>
+      </c>
+      <c r="E8">
+        <v>2.80299877870289</v>
+      </c>
+      <c r="F8">
+        <v>-0.352155590289219</v>
       </c>
     </row>
     <row r="9">
@@ -188,10 +288,19 @@
         <v>800</v>
       </c>
       <c r="B9">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="C9">
-        <v>-34.79</v>
+        <v>-34.594</v>
+      </c>
+      <c r="D9">
+        <v>159</v>
+      </c>
+      <c r="E9">
+        <v>2.77507351067098</v>
+      </c>
+      <c r="F9">
+        <v>-0.383864035035416</v>
       </c>
     </row>
     <row r="10">
@@ -202,7 +311,16 @@
         <v>0.021</v>
       </c>
       <c r="C10">
-        <v>-33.467</v>
+        <v>-33.356</v>
+      </c>
+      <c r="D10">
+        <v>157.8</v>
+      </c>
+      <c r="E10">
+        <v>2.75412955964705</v>
+      </c>
+      <c r="F10">
+        <v>-0.408092440798307</v>
       </c>
     </row>
     <row r="11">
@@ -210,10 +328,19 @@
         <v>1000</v>
       </c>
       <c r="B11">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="C11">
-        <v>-32.592</v>
+        <v>-31.143</v>
+      </c>
+      <c r="D11">
+        <v>156.4</v>
+      </c>
+      <c r="E11">
+        <v>2.72969495011913</v>
+      </c>
+      <c r="F11">
+        <v>-0.436889257541222</v>
       </c>
     </row>
     <row r="12">
@@ -221,10 +348,19 @@
         <v>2000</v>
       </c>
       <c r="B12">
-        <v>0.052</v>
+        <v>0.057</v>
       </c>
       <c r="C12">
-        <v>-25.62</v>
+        <v>-24.873</v>
+      </c>
+      <c r="D12">
+        <v>142.2</v>
+      </c>
+      <c r="E12">
+        <v>2.48185819633594</v>
+      </c>
+      <c r="F12">
+        <v>-0.775679511049614</v>
       </c>
     </row>
     <row r="13">
@@ -232,10 +368,19 @@
         <v>3000</v>
       </c>
       <c r="B13">
-        <v>0.074</v>
+        <v>0.079</v>
       </c>
       <c r="C13">
-        <v>-22.558</v>
+        <v>-22.016</v>
+      </c>
+      <c r="D13">
+        <v>131.7</v>
+      </c>
+      <c r="E13">
+        <v>2.29859862487653</v>
+      </c>
+      <c r="F13">
+        <v>-1.12237539532201</v>
       </c>
     </row>
     <row r="14">
@@ -243,10 +388,19 @@
         <v>4000</v>
       </c>
       <c r="B14">
-        <v>0.08699999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="C14">
-        <v>-21.174</v>
+        <v>-20.87</v>
+      </c>
+      <c r="D14">
+        <v>124.3</v>
+      </c>
+      <c r="E14">
+        <v>2.16944426022895</v>
+      </c>
+      <c r="F14">
+        <v>-1.46594517867138</v>
       </c>
     </row>
     <row r="15">
@@ -254,10 +408,19 @@
         <v>5000</v>
       </c>
       <c r="B15">
-        <v>0.097</v>
+        <v>0.098</v>
       </c>
       <c r="C15">
-        <v>-20.253</v>
+        <v>-20.173</v>
+      </c>
+      <c r="D15">
+        <v>119.3</v>
+      </c>
+      <c r="E15">
+        <v>2.08217779762924</v>
+      </c>
+      <c r="F15">
+        <v>-1.78197904178156</v>
       </c>
     </row>
     <row r="16">
@@ -265,10 +428,19 @@
         <v>6000</v>
       </c>
       <c r="B16">
-        <v>0.105</v>
+        <v>0.102</v>
       </c>
       <c r="C16">
-        <v>-19.596</v>
+        <v>-19.788</v>
+      </c>
+      <c r="D16">
+        <v>115.2</v>
+      </c>
+      <c r="E16">
+        <v>2.01061929829747</v>
+      </c>
+      <c r="F16">
+        <v>-2.1251081731572</v>
       </c>
     </row>
     <row r="17">
@@ -276,10 +448,19 @@
         <v>7000</v>
       </c>
       <c r="B17">
-        <v>0.109</v>
+        <v>0.103</v>
       </c>
       <c r="C17">
-        <v>-19.215</v>
+        <v>-19.731</v>
+      </c>
+      <c r="D17">
+        <v>112.6</v>
+      </c>
+      <c r="E17">
+        <v>1.96524073774561</v>
+      </c>
+      <c r="F17">
+        <v>-2.40234570309941</v>
       </c>
     </row>
     <row r="18">
@@ -287,10 +468,19 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <v>0.116</v>
+        <v>0.104</v>
       </c>
       <c r="C18">
-        <v>-18.74</v>
+        <v>-19.657</v>
+      </c>
+      <c r="D18">
+        <v>110.1</v>
+      </c>
+      <c r="E18">
+        <v>1.92160750644576</v>
+      </c>
+      <c r="F18">
+        <v>-2.73262843123651</v>
       </c>
     </row>
     <row r="19">
@@ -298,10 +488,19 @@
         <v>9000</v>
       </c>
       <c r="B19">
-        <v>0.121</v>
+        <v>0.105</v>
       </c>
       <c r="C19">
-        <v>-18.376</v>
+        <v>-19.603</v>
+      </c>
+      <c r="D19">
+        <v>108.1</v>
+      </c>
+      <c r="E19">
+        <v>1.88670092140587</v>
+      </c>
+      <c r="F19">
+        <v>-3.05950384700108</v>
       </c>
     </row>
     <row r="20">
@@ -309,10 +508,553 @@
         <v>10000</v>
       </c>
       <c r="B20">
-        <v>0.127</v>
+        <v>0.104</v>
       </c>
       <c r="C20">
-        <v>-17.938</v>
+        <v>-19.697</v>
+      </c>
+      <c r="D20">
+        <v>106.4</v>
+      </c>
+      <c r="E20">
+        <v>1.85703032412197</v>
+      </c>
+      <c r="F20">
+        <v>-3.39770852381029</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4">
+        <v>-0.292185302018501</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>-0.00973249834969803</v>
+      </c>
+      <c r="E4">
+        <v>-0.00973249834969803</v>
+      </c>
+      <c r="F4">
+        <v>-0.292185302018501</v>
+      </c>
+      <c r="G4">
+        <v>-0.00973249834969803</v>
+      </c>
+      <c r="H4">
+        <v>-0.00973249834969803</v>
+      </c>
+      <c r="I4">
+        <v>30.327868852459</v>
+      </c>
+      <c r="J4">
+        <v>-0.0338466428262019</v>
+      </c>
+      <c r="K4">
+        <v>2.04918032786885</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>1555.55555555556</v>
+      </c>
+      <c r="B5">
+        <v>-0.637586531655995</v>
+      </c>
+      <c r="C5">
+        <v>600</v>
+      </c>
+      <c r="D5">
+        <v>-1.21724592740402e-05</v>
+      </c>
+      <c r="E5">
+        <v>-1.21724592740402e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.324907523773632</v>
+      </c>
+      <c r="G5">
+        <v>-1.21724592740402e-05</v>
+      </c>
+      <c r="H5">
+        <v>-1.21724592740402e-05</v>
+      </c>
+      <c r="I5">
+        <v>36.8852459016393</v>
+      </c>
+      <c r="J5">
+        <v>0.0338466428262018</v>
+      </c>
+      <c r="K5">
+        <v>97.9508196721311</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2611.11111111111</v>
+      </c>
+      <c r="B6">
+        <v>-0.982987761293489</v>
+      </c>
+      <c r="C6">
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>0.00547415523954425</v>
+      </c>
+      <c r="E6">
+        <v>0.00547415523954425</v>
+      </c>
+      <c r="F6">
+        <v>-0.357629745528763</v>
+      </c>
+      <c r="G6">
+        <v>0.00547415523954425</v>
+      </c>
+      <c r="H6">
+        <v>0.00547415523954425</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>3666.66666666667</v>
+      </c>
+      <c r="B7">
+        <v>-1.32838899093098</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7">
+        <v>0.00648793224847816</v>
+      </c>
+      <c r="E7">
+        <v>0.00648793224847816</v>
+      </c>
+      <c r="F7">
+        <v>-0.390351967283894</v>
+      </c>
+      <c r="G7">
+        <v>0.00648793224847816</v>
+      </c>
+      <c r="H7">
+        <v>0.00648793224847816</v>
+      </c>
+      <c r="I7">
+        <v>56.5573770491803</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>4722.22222222222</v>
+      </c>
+      <c r="B8">
+        <v>-1.67379022056848</v>
+      </c>
+      <c r="C8">
+        <v>900</v>
+      </c>
+      <c r="D8">
+        <v>0.014981748240718</v>
+      </c>
+      <c r="E8">
+        <v>0.014981748240718</v>
+      </c>
+      <c r="F8">
+        <v>-0.423074189039025</v>
+      </c>
+      <c r="G8">
+        <v>0.014981748240718</v>
+      </c>
+      <c r="H8">
+        <v>0.014981748240718</v>
+      </c>
+      <c r="I8">
+        <v>82.7868852459016</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>5777.77777777778</v>
+      </c>
+      <c r="B9">
+        <v>-2.01919145020597</v>
+      </c>
+      <c r="C9">
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <v>0.0189071532529341</v>
+      </c>
+      <c r="E9">
+        <v>0.0189071532529341</v>
+      </c>
+      <c r="F9">
+        <v>-0.455796410794156</v>
+      </c>
+      <c r="G9">
+        <v>0.0189071532529341</v>
+      </c>
+      <c r="H9">
+        <v>0.0189071532529341</v>
+      </c>
+      <c r="I9">
+        <v>95.90163934426231</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>6833.33333333333</v>
+      </c>
+      <c r="B10">
+        <v>-2.36459267984347</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>0.00733911729585279</v>
+      </c>
+      <c r="E10">
+        <v>0.00733911729585279</v>
+      </c>
+      <c r="F10">
+        <v>-0.783018628345467</v>
+      </c>
+      <c r="G10">
+        <v>0.00733911729585279</v>
+      </c>
+      <c r="H10">
+        <v>0.00733911729585279</v>
+      </c>
+      <c r="I10">
+        <v>63.1147540983607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>7888.88888888889</v>
+      </c>
+      <c r="B11">
+        <v>-2.70999390948096</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11">
+        <v>-0.0121345494252376</v>
+      </c>
+      <c r="E11">
+        <v>-0.0121345494252376</v>
+      </c>
+      <c r="F11">
+        <v>-1.11024084589678</v>
+      </c>
+      <c r="G11">
+        <v>-0.0121345494252376</v>
+      </c>
+      <c r="H11">
+        <v>-0.0121345494252376</v>
+      </c>
+      <c r="I11">
+        <v>23.7704918032787</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>8944.444444444451</v>
+      </c>
+      <c r="B12">
+        <v>-3.05539513911845</v>
+      </c>
+      <c r="C12">
+        <v>4000</v>
+      </c>
+      <c r="D12">
+        <v>-0.0284821152232915</v>
+      </c>
+      <c r="E12">
+        <v>-0.0284821152232915</v>
+      </c>
+      <c r="F12">
+        <v>-1.43746306344809</v>
+      </c>
+      <c r="G12">
+        <v>-0.0284821152232915</v>
+      </c>
+      <c r="H12">
+        <v>-0.0284821152232915</v>
+      </c>
+      <c r="I12">
+        <v>10.655737704918</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>-3.40079636875595</v>
+      </c>
+      <c r="C13">
+        <v>5000</v>
+      </c>
+      <c r="D13">
+        <v>-0.017293760782165</v>
+      </c>
+      <c r="E13">
+        <v>-0.017293760782165</v>
+      </c>
+      <c r="F13">
+        <v>-1.7646852809994</v>
+      </c>
+      <c r="G13">
+        <v>-0.017293760782165</v>
+      </c>
+      <c r="H13">
+        <v>-0.017293760782165</v>
+      </c>
+      <c r="I13">
+        <v>17.2131147540984</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14">
+        <v>6000</v>
+      </c>
+      <c r="D14">
+        <v>-0.0332006746064955</v>
+      </c>
+      <c r="E14">
+        <v>-0.0332006746064955</v>
+      </c>
+      <c r="F14">
+        <v>-2.09190749855071</v>
+      </c>
+      <c r="G14">
+        <v>-0.0332006746064955</v>
+      </c>
+      <c r="H14">
+        <v>-0.0332006746064955</v>
+      </c>
+      <c r="I14">
+        <v>4.0983606557377</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>0.0167840130026051</v>
+      </c>
+      <c r="E15">
+        <v>0.0167840130026051</v>
+      </c>
+      <c r="F15">
+        <v>-2.41912971610202</v>
+      </c>
+      <c r="G15">
+        <v>0.0167840130026051</v>
+      </c>
+      <c r="H15">
+        <v>0.0167840130026051</v>
+      </c>
+      <c r="I15">
+        <v>89.344262295082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16">
+        <v>8000</v>
+      </c>
+      <c r="D16">
+        <v>0.0137235024168167</v>
+      </c>
+      <c r="E16">
+        <v>0.0137235024168167</v>
+      </c>
+      <c r="F16">
+        <v>-2.74635193365333</v>
+      </c>
+      <c r="G16">
+        <v>0.0137235024168167</v>
+      </c>
+      <c r="H16">
+        <v>0.0137235024168167</v>
+      </c>
+      <c r="I16">
+        <v>69.67213114754099</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17">
+        <v>9000</v>
+      </c>
+      <c r="D17">
+        <v>0.0140703042035568</v>
+      </c>
+      <c r="E17">
+        <v>0.0140703042035568</v>
+      </c>
+      <c r="F17">
+        <v>-3.07357415120464</v>
+      </c>
+      <c r="G17">
+        <v>0.0140703042035568</v>
+      </c>
+      <c r="H17">
+        <v>0.0140703042035568</v>
+      </c>
+      <c r="I17">
+        <v>76.2295081967213</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18">
+        <v>10000</v>
+      </c>
+      <c r="D18">
+        <v>0.00308784494565506</v>
+      </c>
+      <c r="E18">
+        <v>0.00308784494565506</v>
+      </c>
+      <c r="F18">
+        <v>-3.40079636875595</v>
+      </c>
+      <c r="G18">
+        <v>0.00308784494565506</v>
+      </c>
+      <c r="H18">
+        <v>0.00308784494565506</v>
+      </c>
+      <c r="I18">
+        <v>43.4426229508197</v>
       </c>
     </row>
   </sheetData>
